--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_OV.xlsx
@@ -3015,7 +3015,7 @@
         <v>0.9043326471395936</v>
       </c>
       <c r="E156">
-        <v>0.9851682387696213</v>
+        <v>0.9851682387696212</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3032,7 +3032,7 @@
         <v>0.8236409625569745</v>
       </c>
       <c r="E157">
-        <v>0.9142749187225783</v>
+        <v>0.9142749187225782</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -6857,7 +6857,7 @@
         <v>0.6904338080715987</v>
       </c>
       <c r="E382">
-        <v>0.6054569678769346</v>
+        <v>0.6054569678769345</v>
       </c>
     </row>
     <row r="383" spans="1:5">
